--- a/excel sheet (resume management portal).xlsx
+++ b/excel sheet (resume management portal).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>DAILY ROUTINE</t>
   </si>
@@ -130,6 +130,33 @@
   </si>
   <si>
     <t>completed in review document.</t>
+  </si>
+  <si>
+    <t>1st review</t>
+  </si>
+  <si>
+    <t>UI DESIGNE START</t>
+  </si>
+  <si>
+    <t>UI DESIGN START</t>
+  </si>
+  <si>
+    <t>UI design was completed</t>
+  </si>
+  <si>
+    <t>ui designed was completed.</t>
+  </si>
+  <si>
+    <t>java class was taken of different 14 topics</t>
+  </si>
+  <si>
+    <t>spring  boot class was taken.</t>
+  </si>
+  <si>
+    <t>10/01/202</t>
+  </si>
+  <si>
+    <t>try to implement  the ui design  in eclipse.</t>
   </si>
 </sst>
 </file>
@@ -478,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +686,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43862</v>
       </c>
@@ -668,6 +695,72 @@
       </c>
       <c r="C17" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
